--- a/files/Mac_User_Info.xlsx
+++ b/files/Mac_User_Info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,60 +458,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-18-D6-21-9B-4C:UM</t>
+          <t>04-18-D6-22-8E-6D:UM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>egenzelezvw</t>
+          <t>csegeview</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58-00-E3-D2-BE-4B</t>
+          <t>48-C7-96-EE-75-1C</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-18-D6-22-9B-4C:UM</t>
+          <t>04-18-D6-22-94-E7:UM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>egenzelezvw</t>
+          <t>csegeview</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>422</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>58-00-E3-D2-BE-4B</t>
+          <t>48-C7-96-EE-75-1C</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DC-9F-DB-12-F3-EA:UM</t>
+          <t>04-18-D6-22-9B-4C:UM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>egenzelezvw</t>
+          <t>csegeview</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48-C7-96-EE-75-1C</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DC-9F-DB-12-F4-75:UM</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>58-00-E3-D2-BE-4B</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48-C7-96-EE-75-1C</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DC-9F-DB-12-F4-A9:UM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>csegeview</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48-C7-96-EE-75-1C</t>
         </is>
       </c>
     </row>

--- a/files/Mac_User_Info.xlsx
+++ b/files/Mac_User_Info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,100 +458,160 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-18-D6-22-8E-6D:UM</t>
+          <t>04-18-D6-21-38-E1:UM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>csegeview</t>
+          <t>invitede-pansew</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>240</v>
+        <v>401</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>48-C7-96-EE-75-1C</t>
+          <t>60-1D-91-78-43-74</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-18-D6-22-94-E7:UM</t>
+          <t>04-18-D6-21-8E-6D:UM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>csegeview</t>
+          <t>invitede-pansew</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>422</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>48-C7-96-EE-75-1C</t>
+          <t>60-1D-91-78-43-74</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-18-D6-22-9B-4C:UM</t>
+          <t>04-18-D6-21-94-E7:UM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>csegeview</t>
+          <t>invitede-pansew</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>48-C7-96-EE-75-1C</t>
+          <t>60-1D-91-78-43-74</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DC-9F-DB-12-F4-75:UM</t>
+          <t>04-18-D6-22-38-E1:UM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>csegeview</t>
+          <t>invitede-pansew</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>48-C7-96-EE-75-1C</t>
+          <t>60-1D-91-78-43-74</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>04-18-D6-22-8E-6D:UM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>60-1D-91-78-43-74</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DC-9F-DB-12-F3-EA:UM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>412</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>60-1D-91-78-43-74</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DC-9F-DB-12-F4-75:UM</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>60-1D-91-78-43-74</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>DC-9F-DB-12-F4-A9:UM</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>csegeview</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>48-C7-96-EE-75-1C</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60-1D-91-78-43-74</t>
         </is>
       </c>
     </row>

--- a/files/Mac_User_Info.xlsx
+++ b/files/Mac_User_Info.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,160 +458,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-18-D6-21-38-E1:UM</t>
+          <t>04-18-D6-22-8E-6D:UM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>csegeview</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>401</v>
+        <v>240</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>60-1D-91-78-43-74</t>
+          <t>48-C7-96-EE-75-1C</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04-18-D6-21-8E-6D:UM</t>
+          <t>04-18-D6-22-94-E7:UM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>csegeview</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>422</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60-1D-91-78-43-74</t>
+          <t>48-C7-96-EE-75-1C</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-18-D6-21-94-E7:UM</t>
+          <t>04-18-D6-22-9B-4C:UM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>csegeview</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>60-1D-91-78-43-74</t>
+          <t>48-C7-96-EE-75-1C</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04-18-D6-22-38-E1:UM</t>
+          <t>DC-9F-DB-12-F4-75:UM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>csegeview</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>60-1D-91-78-43-74</t>
+          <t>48-C7-96-EE-75-1C</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04-18-D6-22-8E-6D:UM</t>
+          <t>DC-9F-DB-12-F4-A9:UM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>invitede-pansew</t>
+          <t>csegeview</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>60-1D-91-78-43-74</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>DC-9F-DB-12-F3-EA:UM</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>invitede-pansew</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>412</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>60-1D-91-78-43-74</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>DC-9F-DB-12-F4-75:UM</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>invitede-pansew</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>60-1D-91-78-43-74</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>DC-9F-DB-12-F4-A9:UM</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>invitede-pansew</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>14</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>60-1D-91-78-43-74</t>
+          <t>48-C7-96-EE-75-1C</t>
         </is>
       </c>
     </row>

--- a/files/Mac_User_Info.xlsx
+++ b/files/Mac_User_Info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,20 +458,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04-18-D6-22-8E-6D:UM</t>
+          <t>04-18-D6-22-8D-DF:UM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>csegeview</t>
+          <t>invitede-pansew</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>48-C7-96-EE-75-1C</t>
+          <t>48-C7-96-31-BA-ED</t>
         </is>
       </c>
     </row>
@@ -483,75 +483,155 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>csegeview</t>
+          <t>invitede-pansew</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>422</v>
+        <v>5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>48-C7-96-EE-75-1C</t>
+          <t>48-C7-96-31-BA-ED</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04-18-D6-22-9B-4C:UM</t>
+          <t>04-18-D6-82-C5-46:UM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>csegeview</t>
+          <t>invitede-pansew</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>48-C7-96-EE-75-1C</t>
+          <t>48-C7-96-31-BA-ED</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DC-9F-DB-12-F4-75:UM</t>
+          <t>04-18-D6-C2-09-FC:UM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>csegeview</t>
+          <t>invitede-pansew</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>48-C7-96-EE-75-1C</t>
+          <t>48-C7-96-31-BA-ED</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>04-18-D6-C2-0A-F7:UM</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>553</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48-C7-96-31-BA-ED</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04-18-D6-C2-0B-08:UM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>31</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48-C7-96-31-BA-ED</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DC-9F-DB-12-F3-EA:UM</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>48-C7-96-31-BA-ED</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DC-9F-DB-12-F4-75:UM</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48-C7-96-31-BA-ED</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>DC-9F-DB-12-F4-A9:UM</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>csegeview</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>48-C7-96-EE-75-1C</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>invitede-pansew</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>244</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>48-C7-96-31-BA-ED</t>
         </is>
       </c>
     </row>
